--- a/evaluation/results/hybrid/pca/LOF/split_2/test_50_50/evaluation_metrics.xlsx
+++ b/evaluation/results/hybrid/pca/LOF/split_2/test_50_50/evaluation_metrics.xlsx
@@ -500,37 +500,37 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>0.4868913857677903</v>
+        <v>0.6179775280898876</v>
       </c>
       <c r="C2">
-        <v>0.3055555555555556</v>
+        <v>0.5668789808917197</v>
       </c>
       <c r="D2">
-        <v>0.02059925093632959</v>
+        <v>1</v>
       </c>
       <c r="E2">
-        <v>0.03859649122807018</v>
+        <v>0.7235772357723578</v>
       </c>
       <c r="F2">
-        <v>0.02532228360957643</v>
+        <v>0.8674463937621832</v>
       </c>
       <c r="G2">
-        <v>0.02136560585686538</v>
+        <v>0.9714525608732157</v>
       </c>
       <c r="H2">
-        <v>0.4868913857677902</v>
+        <v>0.8048331439633043</v>
       </c>
       <c r="I2">
-        <v>11</v>
+        <v>534</v>
       </c>
       <c r="J2">
-        <v>25</v>
+        <v>408</v>
       </c>
       <c r="K2">
-        <v>509</v>
+        <v>126</v>
       </c>
       <c r="L2">
-        <v>523</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -565,13 +565,13 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>0.4932170542635659</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>0.9531835205992509</v>
+        <v>0.2359550561797753</v>
       </c>
       <c r="D2">
-        <v>0.6500638569604087</v>
+        <v>0.3818181818181818</v>
       </c>
       <c r="E2">
         <v>534</v>
@@ -582,13 +582,13 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>0.3055555555555556</v>
+        <v>0.5668789808917197</v>
       </c>
       <c r="C3">
-        <v>0.02059925093632959</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>0.03859649122807018</v>
+        <v>0.7235772357723578</v>
       </c>
       <c r="E3">
         <v>534</v>
@@ -599,16 +599,16 @@
         <v>19</v>
       </c>
       <c r="B4">
-        <v>0.4868913857677903</v>
+        <v>0.6179775280898876</v>
       </c>
       <c r="C4">
-        <v>0.4868913857677903</v>
+        <v>0.6179775280898876</v>
       </c>
       <c r="D4">
-        <v>0.4868913857677903</v>
+        <v>0.6179775280898876</v>
       </c>
       <c r="E4">
-        <v>0.4868913857677903</v>
+        <v>0.6179775280898876</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -616,13 +616,13 @@
         <v>20</v>
       </c>
       <c r="B5">
-        <v>0.3993863049095607</v>
+        <v>0.7834394904458599</v>
       </c>
       <c r="C5">
-        <v>0.4868913857677903</v>
+        <v>0.6179775280898876</v>
       </c>
       <c r="D5">
-        <v>0.3443301740942394</v>
+        <v>0.5526977087952698</v>
       </c>
       <c r="E5">
         <v>1068</v>
@@ -633,13 +633,13 @@
         <v>21</v>
       </c>
       <c r="B6">
-        <v>0.3993863049095607</v>
+        <v>0.7834394904458598</v>
       </c>
       <c r="C6">
-        <v>0.4868913857677903</v>
+        <v>0.6179775280898876</v>
       </c>
       <c r="D6">
-        <v>0.3443301740942394</v>
+        <v>0.5526977087952698</v>
       </c>
       <c r="E6">
         <v>1068</v>
@@ -671,10 +671,10 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>509</v>
+        <v>126</v>
       </c>
       <c r="C2">
-        <v>25</v>
+        <v>408</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -682,10 +682,10 @@
         <v>25</v>
       </c>
       <c r="B3">
-        <v>523</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>11</v>
+        <v>534</v>
       </c>
     </row>
   </sheetData>
